--- a/media/LSR Frais Inscription.xlsx
+++ b/media/LSR Frais Inscription.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987E71C-485B-4E62-8C33-E2259A00877D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFE9E2-0DD9-4CC3-8260-CA82B2D2B994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="pmJegMjaWzSEGKxHlKpl4q9qLXg033XxfY4/md2qdWWV7HDxJ+j6lZY0yjBsMFLGqQ4IiCcgE/fKM5egFb6OCw==" workbookSaltValue="RS4wXIL15IBFvJtuE/nBdQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Couple marié</t>
   </si>
@@ -657,27 +657,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -701,6 +680,27 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -924,7 +924,7 @@
   <dimension ref="B1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -940,15 +940,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,19 +1017,19 @@
       </c>
     </row>
     <row r="7" spans="2:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="18">
         <v>410</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="47" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="21"/>
@@ -1039,13 +1039,13 @@
       </c>
     </row>
     <row r="9" spans="2:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="18">
         <v>435</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="47" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="21"/>
@@ -1055,13 +1055,13 @@
       </c>
     </row>
     <row r="10" spans="2:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="18">
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="18">
@@ -1113,10 +1113,8 @@
       <c r="B15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="48"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="27"/>
       <c r="F15" s="6">
         <f>IF(OR(C15=Feuil2!D1,C15=0),0,-15600)</f>
@@ -1127,16 +1125,14 @@
       <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="49">
-        <v>2</v>
-      </c>
-      <c r="D16" s="50"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="29">
         <v>-14000</v>
       </c>
       <c r="F16" s="7">
         <f>C16*E16</f>
-        <v>-28000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1146,13 +1142,13 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="59">
+      <c r="F18" s="53">
         <f>IF(SUM(F13:F16)&lt;30000,30000,SUM(F13:F16))</f>
         <v>30000</v>
       </c>
@@ -6137,7 +6133,7 @@
     <col min="27" max="16384" width="12.59765625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43">
         <v>0</v>
       </c>
@@ -6151,9 +6147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45">
-        <f t="shared" ref="A2:B56" si="0">A3-$C$1</f>
+        <f t="shared" ref="A2:A56" si="0">A3-$C$1</f>
         <v>30000</v>
       </c>
       <c r="B2" s="44">
@@ -6166,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <f t="shared" si="0"/>
         <v>32000</v>
@@ -6180,13 +6176,13 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="B4" s="44">
-        <f t="shared" ref="B4:B57" si="1">B3+180</f>
+        <f t="shared" ref="B4:B56" si="1">B3+180</f>
         <v>7360</v>
       </c>
       <c r="C4" s="46">
@@ -6194,7 +6190,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <f t="shared" si="0"/>
         <v>36000</v>
@@ -6208,7 +6204,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45">
         <f t="shared" si="0"/>
         <v>38000</v>
@@ -6222,7 +6218,7 @@
         <v>7720</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45">
         <f t="shared" si="0"/>
         <v>40000</v>
@@ -6236,7 +6232,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45">
         <f t="shared" si="0"/>
         <v>42000</v>
@@ -6250,7 +6246,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45">
         <f t="shared" si="0"/>
         <v>44000</v>
@@ -6264,7 +6260,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45">
         <f t="shared" si="0"/>
         <v>46000</v>
@@ -6278,7 +6274,7 @@
         <v>8440</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45">
         <f t="shared" si="0"/>
         <v>48000</v>
@@ -6292,7 +6288,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45">
         <f t="shared" si="0"/>
         <v>50000</v>
@@ -6306,7 +6302,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45">
         <f t="shared" si="0"/>
         <v>52000</v>
@@ -6320,7 +6316,7 @@
         <v>8980</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45">
         <f t="shared" si="0"/>
         <v>54000</v>
@@ -6334,7 +6330,7 @@
         <v>9160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45">
         <f t="shared" si="0"/>
         <v>56000</v>
@@ -6348,7 +6344,7 @@
         <v>9340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45">
         <f t="shared" si="0"/>
         <v>58000</v>
@@ -6362,7 +6358,7 @@
         <v>9520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45">
         <f t="shared" si="0"/>
         <v>60000</v>
@@ -6376,7 +6372,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45">
         <f t="shared" si="0"/>
         <v>62000</v>
@@ -6390,7 +6386,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45">
         <f t="shared" si="0"/>
         <v>64000</v>
@@ -6404,7 +6400,7 @@
         <v>10060</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45">
         <f t="shared" si="0"/>
         <v>66000</v>
@@ -6418,7 +6414,7 @@
         <v>10240</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45">
         <f t="shared" si="0"/>
         <v>68000</v>
@@ -6432,7 +6428,7 @@
         <v>10420</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45">
         <f t="shared" si="0"/>
         <v>70000</v>
@@ -6446,7 +6442,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <f t="shared" si="0"/>
         <v>72000</v>
@@ -6460,7 +6456,7 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45">
         <f t="shared" si="0"/>
         <v>74000</v>
@@ -6474,7 +6470,7 @@
         <v>10960</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45">
         <f t="shared" si="0"/>
         <v>76000</v>
@@ -6488,7 +6484,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <f t="shared" si="0"/>
         <v>78000</v>
@@ -6502,7 +6498,7 @@
         <v>11320</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <f t="shared" si="0"/>
         <v>80000</v>
@@ -6516,7 +6512,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <f t="shared" si="0"/>
         <v>82000</v>
@@ -6530,7 +6526,7 @@
         <v>11680</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <f t="shared" si="0"/>
         <v>84000</v>
@@ -6544,7 +6540,7 @@
         <v>11860</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <f t="shared" si="0"/>
         <v>86000</v>
@@ -6558,7 +6554,7 @@
         <v>12040</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <f t="shared" si="0"/>
         <v>88000</v>
@@ -6572,7 +6568,7 @@
         <v>12220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <f t="shared" si="0"/>
         <v>90000</v>
@@ -6586,7 +6582,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <f t="shared" si="0"/>
         <v>92000</v>
@@ -6600,7 +6596,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <f t="shared" si="0"/>
         <v>94000</v>
@@ -6614,7 +6610,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <f>A36-$C$1</f>
         <v>96000</v>
@@ -6628,7 +6624,7 @@
         <v>12940</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <f t="shared" si="0"/>
         <v>98000</v>
@@ -6642,7 +6638,7 @@
         <v>13120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -6656,7 +6652,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <f t="shared" si="0"/>
         <v>102000</v>
@@ -6670,7 +6666,7 @@
         <v>13480</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -6684,7 +6680,7 @@
         <v>13660</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <f t="shared" si="0"/>
         <v>106000</v>
@@ -6698,7 +6694,7 @@
         <v>13840</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <f t="shared" si="0"/>
         <v>108000</v>
@@ -6712,7 +6708,7 @@
         <v>14020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <f t="shared" si="0"/>
         <v>110000</v>
@@ -6726,7 +6722,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <f t="shared" si="0"/>
         <v>112000</v>
@@ -6740,7 +6736,7 @@
         <v>14380</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <f t="shared" si="0"/>
         <v>114000</v>
@@ -6754,7 +6750,7 @@
         <v>14560</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <f t="shared" si="0"/>
         <v>116000</v>
@@ -6768,7 +6764,7 @@
         <v>14740</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <f t="shared" si="0"/>
         <v>118000</v>
@@ -6782,7 +6778,7 @@
         <v>14920</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <f t="shared" si="0"/>
         <v>120000</v>
@@ -6796,7 +6792,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <f t="shared" si="0"/>
         <v>122000</v>
@@ -6810,7 +6806,7 @@
         <v>15280</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <f t="shared" si="0"/>
         <v>124000</v>
@@ -6824,7 +6820,7 @@
         <v>15460</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <f t="shared" si="0"/>
         <v>126000</v>
@@ -6838,7 +6834,7 @@
         <v>15640</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <f t="shared" si="0"/>
         <v>128000</v>
@@ -6852,7 +6848,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <f t="shared" si="0"/>
         <v>130000</v>
@@ -6866,7 +6862,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <f t="shared" si="0"/>
         <v>132000</v>
@@ -6880,7 +6876,7 @@
         <v>16180</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <f t="shared" si="0"/>
         <v>134000</v>
@@ -6894,7 +6890,7 @@
         <v>16360</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <f t="shared" si="0"/>
         <v>136000</v>
@@ -6908,7 +6904,7 @@
         <v>16540</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <f t="shared" si="0"/>
         <v>138000</v>
@@ -6922,7 +6918,7 @@
         <v>16720</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>140000</v>
       </c>
@@ -6934,2843 +6930,2843 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="44"/>
     </row>
-    <row r="59" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="44"/>
     </row>
-    <row r="60" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="44"/>
     </row>
-    <row r="61" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="44"/>
     </row>
-    <row r="62" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="44"/>
     </row>
-    <row r="63" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="44"/>
     </row>
-    <row r="64" spans="1:3" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="44"/>
     </row>
-    <row r="65" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="44"/>
     </row>
-    <row r="66" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
       <c r="B66" s="44"/>
     </row>
-    <row r="67" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="44"/>
     </row>
-    <row r="68" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="44"/>
     </row>
-    <row r="69" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="44"/>
     </row>
-    <row r="70" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="44"/>
     </row>
-    <row r="71" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="44"/>
     </row>
-    <row r="72" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="44"/>
     </row>
-    <row r="73" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="44"/>
     </row>
-    <row r="74" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="44"/>
     </row>
-    <row r="75" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="44"/>
     </row>
-    <row r="76" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="44"/>
     </row>
-    <row r="77" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="44"/>
     </row>
-    <row r="78" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="44"/>
     </row>
-    <row r="79" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="44"/>
     </row>
-    <row r="80" spans="1:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="44"/>
     </row>
-    <row r="81" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="44"/>
     </row>
-    <row r="82" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="44"/>
     </row>
-    <row r="83" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="44"/>
     </row>
-    <row r="84" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="44"/>
     </row>
-    <row r="85" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="44"/>
     </row>
-    <row r="86" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="44"/>
     </row>
-    <row r="87" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="44"/>
     </row>
-    <row r="88" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="44"/>
     </row>
-    <row r="89" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="44"/>
     </row>
-    <row r="90" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="44"/>
     </row>
-    <row r="91" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="44"/>
     </row>
-    <row r="92" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="44"/>
     </row>
-    <row r="93" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="44"/>
     </row>
-    <row r="94" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="44"/>
     </row>
-    <row r="95" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="44"/>
     </row>
-    <row r="96" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="44"/>
     </row>
-    <row r="97" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="44"/>
     </row>
-    <row r="98" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="44"/>
     </row>
-    <row r="99" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="44"/>
     </row>
-    <row r="100" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="44"/>
     </row>
-    <row r="101" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="44"/>
     </row>
-    <row r="102" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="44"/>
     </row>
-    <row r="103" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="44"/>
     </row>
-    <row r="104" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="44"/>
     </row>
-    <row r="105" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="44"/>
     </row>
-    <row r="106" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="44"/>
     </row>
-    <row r="107" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="44"/>
     </row>
-    <row r="108" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="44"/>
     </row>
-    <row r="109" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="44"/>
     </row>
-    <row r="110" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="44"/>
     </row>
-    <row r="111" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="44"/>
     </row>
-    <row r="112" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="44"/>
     </row>
-    <row r="113" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="44"/>
     </row>
-    <row r="114" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="44"/>
     </row>
-    <row r="115" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="44"/>
     </row>
-    <row r="116" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="44"/>
     </row>
-    <row r="117" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="44"/>
     </row>
-    <row r="118" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="44"/>
     </row>
-    <row r="119" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="44"/>
     </row>
-    <row r="120" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="44"/>
     </row>
-    <row r="121" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="44"/>
     </row>
-    <row r="122" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="44"/>
     </row>
-    <row r="123" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="44"/>
     </row>
-    <row r="124" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="44"/>
     </row>
-    <row r="125" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="44"/>
     </row>
-    <row r="126" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="44"/>
     </row>
-    <row r="127" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="44"/>
     </row>
-    <row r="128" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="44"/>
     </row>
-    <row r="129" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="44"/>
     </row>
-    <row r="130" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="44"/>
     </row>
-    <row r="131" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="44"/>
     </row>
-    <row r="132" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="44"/>
     </row>
-    <row r="133" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="44"/>
     </row>
-    <row r="134" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="44"/>
     </row>
-    <row r="135" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="44"/>
     </row>
-    <row r="136" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="44"/>
     </row>
-    <row r="137" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="44"/>
     </row>
-    <row r="138" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="44"/>
     </row>
-    <row r="139" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="44"/>
     </row>
-    <row r="140" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="44"/>
     </row>
-    <row r="141" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="44"/>
     </row>
-    <row r="142" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="44"/>
     </row>
-    <row r="143" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="44"/>
     </row>
-    <row r="144" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="44"/>
     </row>
-    <row r="145" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="44"/>
     </row>
-    <row r="146" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="44"/>
     </row>
-    <row r="147" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="44"/>
     </row>
-    <row r="148" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="44"/>
     </row>
-    <row r="149" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="44"/>
     </row>
-    <row r="150" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="44"/>
     </row>
-    <row r="151" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="44"/>
     </row>
-    <row r="152" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="44"/>
     </row>
-    <row r="153" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="44"/>
     </row>
-    <row r="154" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="44"/>
     </row>
-    <row r="155" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="44"/>
     </row>
-    <row r="156" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="44"/>
     </row>
-    <row r="157" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="44"/>
     </row>
-    <row r="158" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="44"/>
     </row>
-    <row r="159" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="44"/>
     </row>
-    <row r="160" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="44"/>
     </row>
-    <row r="161" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="44"/>
     </row>
-    <row r="162" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="44"/>
     </row>
-    <row r="163" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="44"/>
     </row>
-    <row r="164" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="44"/>
     </row>
-    <row r="165" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="44"/>
     </row>
-    <row r="166" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="44"/>
     </row>
-    <row r="167" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="44"/>
     </row>
-    <row r="168" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="44"/>
     </row>
-    <row r="169" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="44"/>
     </row>
-    <row r="170" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="44"/>
     </row>
-    <row r="171" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="44"/>
     </row>
-    <row r="172" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="44"/>
     </row>
-    <row r="173" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="44"/>
     </row>
-    <row r="174" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="44"/>
     </row>
-    <row r="175" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="44"/>
     </row>
-    <row r="176" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="44"/>
     </row>
-    <row r="177" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="44"/>
     </row>
-    <row r="178" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="44"/>
     </row>
-    <row r="179" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="44"/>
     </row>
-    <row r="180" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="44"/>
     </row>
-    <row r="181" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="44"/>
     </row>
-    <row r="182" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="44"/>
     </row>
-    <row r="183" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="44"/>
     </row>
-    <row r="184" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="44"/>
     </row>
-    <row r="185" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="44"/>
     </row>
-    <row r="186" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="44"/>
     </row>
-    <row r="187" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="44"/>
     </row>
-    <row r="188" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="44"/>
     </row>
-    <row r="189" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="44"/>
     </row>
-    <row r="190" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="44"/>
     </row>
-    <row r="191" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="44"/>
     </row>
-    <row r="192" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="44"/>
     </row>
-    <row r="193" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="44"/>
     </row>
-    <row r="194" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="44"/>
     </row>
-    <row r="195" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="44"/>
     </row>
-    <row r="196" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="44"/>
     </row>
-    <row r="197" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="44"/>
     </row>
-    <row r="198" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="44"/>
     </row>
-    <row r="199" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="44"/>
     </row>
-    <row r="200" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="44"/>
     </row>
-    <row r="201" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="44"/>
     </row>
-    <row r="202" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="44"/>
     </row>
-    <row r="203" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="44"/>
     </row>
-    <row r="204" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="44"/>
     </row>
-    <row r="205" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="44"/>
     </row>
-    <row r="206" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="44"/>
     </row>
-    <row r="207" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="44"/>
     </row>
-    <row r="208" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="44"/>
     </row>
-    <row r="209" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="44"/>
     </row>
-    <row r="210" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="44"/>
     </row>
-    <row r="211" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="44"/>
     </row>
-    <row r="212" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="44"/>
     </row>
-    <row r="213" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="44"/>
     </row>
-    <row r="214" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="44"/>
     </row>
-    <row r="215" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="44"/>
     </row>
-    <row r="216" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="44"/>
     </row>
-    <row r="217" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="44"/>
     </row>
-    <row r="218" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="44"/>
     </row>
-    <row r="219" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="44"/>
     </row>
-    <row r="220" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="44"/>
     </row>
-    <row r="221" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="44"/>
     </row>
-    <row r="222" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="44"/>
     </row>
-    <row r="223" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="44"/>
     </row>
-    <row r="224" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="44"/>
     </row>
-    <row r="225" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="44"/>
     </row>
-    <row r="226" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="44"/>
     </row>
-    <row r="227" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="44"/>
     </row>
-    <row r="228" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="44"/>
     </row>
-    <row r="229" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="44"/>
     </row>
-    <row r="230" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="44"/>
     </row>
-    <row r="231" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="44"/>
     </row>
-    <row r="232" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="44"/>
     </row>
-    <row r="233" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="44"/>
     </row>
-    <row r="234" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="44"/>
     </row>
-    <row r="235" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="44"/>
     </row>
-    <row r="236" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="44"/>
     </row>
-    <row r="237" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="44"/>
     </row>
-    <row r="238" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="44"/>
     </row>
-    <row r="239" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="44"/>
     </row>
-    <row r="240" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="44"/>
     </row>
-    <row r="241" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="44"/>
     </row>
-    <row r="242" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="44"/>
     </row>
-    <row r="243" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="44"/>
     </row>
-    <row r="244" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="44"/>
     </row>
-    <row r="245" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="44"/>
     </row>
-    <row r="246" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="44"/>
     </row>
-    <row r="247" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="44"/>
     </row>
-    <row r="248" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="44"/>
     </row>
-    <row r="249" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="44"/>
     </row>
-    <row r="250" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="44"/>
     </row>
-    <row r="251" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="44"/>
     </row>
-    <row r="252" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="44"/>
     </row>
-    <row r="253" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="44"/>
     </row>
-    <row r="254" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="44"/>
     </row>
-    <row r="255" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="44"/>
     </row>
-    <row r="256" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="44"/>
     </row>
-    <row r="257" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="44"/>
     </row>
-    <row r="258" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="44"/>
     </row>
-    <row r="259" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="44"/>
     </row>
-    <row r="260" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="44"/>
     </row>
-    <row r="261" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="44"/>
     </row>
-    <row r="262" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="44"/>
     </row>
-    <row r="263" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="44"/>
     </row>
-    <row r="264" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="44"/>
     </row>
-    <row r="265" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="44"/>
     </row>
-    <row r="266" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="44"/>
     </row>
-    <row r="267" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="44"/>
     </row>
-    <row r="268" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="44"/>
     </row>
-    <row r="269" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="44"/>
     </row>
-    <row r="270" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="44"/>
     </row>
-    <row r="271" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="44"/>
     </row>
-    <row r="272" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="44"/>
     </row>
-    <row r="273" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="44"/>
     </row>
-    <row r="274" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="44"/>
     </row>
-    <row r="275" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="44"/>
     </row>
-    <row r="276" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="44"/>
     </row>
-    <row r="277" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="44"/>
     </row>
-    <row r="278" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="44"/>
     </row>
-    <row r="279" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="44"/>
     </row>
-    <row r="280" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="44"/>
     </row>
-    <row r="281" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="44"/>
     </row>
-    <row r="282" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="44"/>
     </row>
-    <row r="283" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="44"/>
     </row>
-    <row r="284" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="44"/>
     </row>
-    <row r="285" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="44"/>
     </row>
-    <row r="286" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="44"/>
     </row>
-    <row r="287" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="44"/>
     </row>
-    <row r="288" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="44"/>
     </row>
-    <row r="289" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="44"/>
     </row>
-    <row r="290" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="44"/>
     </row>
-    <row r="291" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="44"/>
     </row>
-    <row r="292" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="44"/>
     </row>
-    <row r="293" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="44"/>
     </row>
-    <row r="294" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="44"/>
     </row>
-    <row r="295" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="44"/>
     </row>
-    <row r="296" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="44"/>
     </row>
-    <row r="297" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="44"/>
     </row>
-    <row r="298" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="44"/>
     </row>
-    <row r="299" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="44"/>
     </row>
-    <row r="300" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="44"/>
     </row>
-    <row r="301" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="44"/>
     </row>
-    <row r="302" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="44"/>
     </row>
-    <row r="303" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="44"/>
     </row>
-    <row r="304" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="44"/>
     </row>
-    <row r="305" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="44"/>
     </row>
-    <row r="306" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="44"/>
     </row>
-    <row r="307" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="44"/>
     </row>
-    <row r="308" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="44"/>
     </row>
-    <row r="309" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="44"/>
     </row>
-    <row r="310" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="44"/>
     </row>
-    <row r="311" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="44"/>
     </row>
-    <row r="312" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="44"/>
     </row>
-    <row r="313" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="44"/>
     </row>
-    <row r="314" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="44"/>
     </row>
-    <row r="315" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="44"/>
     </row>
-    <row r="316" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="44"/>
     </row>
-    <row r="317" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="44"/>
     </row>
-    <row r="318" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="44"/>
     </row>
-    <row r="319" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="44"/>
     </row>
-    <row r="320" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="44"/>
     </row>
-    <row r="321" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="44"/>
     </row>
-    <row r="322" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="44"/>
     </row>
-    <row r="323" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="44"/>
     </row>
-    <row r="324" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="44"/>
     </row>
-    <row r="325" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="44"/>
     </row>
-    <row r="326" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="44"/>
     </row>
-    <row r="327" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="44"/>
     </row>
-    <row r="328" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="44"/>
     </row>
-    <row r="329" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="44"/>
     </row>
-    <row r="330" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="44"/>
     </row>
-    <row r="331" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="44"/>
     </row>
-    <row r="332" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="44"/>
     </row>
-    <row r="333" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="44"/>
     </row>
-    <row r="334" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="44"/>
     </row>
-    <row r="335" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="44"/>
     </row>
-    <row r="336" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="44"/>
     </row>
-    <row r="337" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="44"/>
     </row>
-    <row r="338" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="44"/>
     </row>
-    <row r="339" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="44"/>
     </row>
-    <row r="340" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="44"/>
     </row>
-    <row r="341" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="44"/>
     </row>
-    <row r="342" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="44"/>
     </row>
-    <row r="343" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="44"/>
     </row>
-    <row r="344" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="44"/>
     </row>
-    <row r="345" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="44"/>
     </row>
-    <row r="346" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="44"/>
     </row>
-    <row r="347" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="44"/>
     </row>
-    <row r="348" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="44"/>
     </row>
-    <row r="349" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="44"/>
     </row>
-    <row r="350" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="44"/>
     </row>
-    <row r="351" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="44"/>
     </row>
-    <row r="352" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="44"/>
     </row>
-    <row r="353" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="44"/>
     </row>
-    <row r="354" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="44"/>
     </row>
-    <row r="355" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="44"/>
     </row>
-    <row r="356" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="44"/>
     </row>
-    <row r="357" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="44"/>
     </row>
-    <row r="358" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="44"/>
     </row>
-    <row r="359" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="44"/>
     </row>
-    <row r="360" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="44"/>
     </row>
-    <row r="361" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="44"/>
     </row>
-    <row r="362" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="44"/>
     </row>
-    <row r="363" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="44"/>
     </row>
-    <row r="364" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="44"/>
     </row>
-    <row r="365" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="44"/>
     </row>
-    <row r="366" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="44"/>
     </row>
-    <row r="367" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="44"/>
     </row>
-    <row r="368" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="44"/>
     </row>
-    <row r="369" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="44"/>
     </row>
-    <row r="370" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="44"/>
     </row>
-    <row r="371" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="44"/>
     </row>
-    <row r="372" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="44"/>
     </row>
-    <row r="373" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="44"/>
     </row>
-    <row r="374" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="44"/>
     </row>
-    <row r="375" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="44"/>
     </row>
-    <row r="376" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="44"/>
     </row>
-    <row r="377" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="44"/>
     </row>
-    <row r="378" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="44"/>
     </row>
-    <row r="379" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="44"/>
     </row>
-    <row r="380" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="44"/>
     </row>
-    <row r="381" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="44"/>
     </row>
-    <row r="382" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="44"/>
     </row>
-    <row r="383" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="44"/>
     </row>
-    <row r="384" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="44"/>
     </row>
-    <row r="385" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="44"/>
     </row>
-    <row r="386" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="44"/>
     </row>
-    <row r="387" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="44"/>
     </row>
-    <row r="388" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="44"/>
     </row>
-    <row r="389" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="44"/>
     </row>
-    <row r="390" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="44"/>
     </row>
-    <row r="391" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="44"/>
     </row>
-    <row r="392" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="44"/>
     </row>
-    <row r="393" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="44"/>
     </row>
-    <row r="394" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="44"/>
     </row>
-    <row r="395" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="44"/>
     </row>
-    <row r="396" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="44"/>
     </row>
-    <row r="397" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="44"/>
     </row>
-    <row r="398" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="44"/>
     </row>
-    <row r="399" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="44"/>
     </row>
-    <row r="400" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="44"/>
     </row>
-    <row r="401" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="44"/>
     </row>
-    <row r="402" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="44"/>
     </row>
-    <row r="403" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="44"/>
     </row>
-    <row r="404" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="44"/>
     </row>
-    <row r="405" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="44"/>
     </row>
-    <row r="406" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="44"/>
     </row>
-    <row r="407" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="44"/>
     </row>
-    <row r="408" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="44"/>
     </row>
-    <row r="409" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="44"/>
     </row>
-    <row r="410" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="44"/>
     </row>
-    <row r="411" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="44"/>
     </row>
-    <row r="412" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="44"/>
     </row>
-    <row r="413" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="44"/>
     </row>
-    <row r="414" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="44"/>
     </row>
-    <row r="415" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="44"/>
     </row>
-    <row r="416" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="44"/>
     </row>
-    <row r="417" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="44"/>
     </row>
-    <row r="418" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="44"/>
     </row>
-    <row r="419" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="44"/>
     </row>
-    <row r="420" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="44"/>
     </row>
-    <row r="421" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="44"/>
     </row>
-    <row r="422" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="44"/>
     </row>
-    <row r="423" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="44"/>
     </row>
-    <row r="424" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="44"/>
     </row>
-    <row r="425" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="44"/>
     </row>
-    <row r="426" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="44"/>
     </row>
-    <row r="427" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="44"/>
     </row>
-    <row r="428" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="44"/>
     </row>
-    <row r="429" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="44"/>
     </row>
-    <row r="430" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="44"/>
     </row>
-    <row r="431" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="44"/>
     </row>
-    <row r="432" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="44"/>
     </row>
-    <row r="433" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="44"/>
     </row>
-    <row r="434" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="44"/>
     </row>
-    <row r="435" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="44"/>
     </row>
-    <row r="436" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="44"/>
     </row>
-    <row r="437" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="44"/>
     </row>
-    <row r="438" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="44"/>
     </row>
-    <row r="439" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="44"/>
     </row>
-    <row r="440" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="44"/>
     </row>
-    <row r="441" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="44"/>
     </row>
-    <row r="442" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="44"/>
     </row>
-    <row r="443" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="44"/>
     </row>
-    <row r="444" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="44"/>
     </row>
-    <row r="445" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="44"/>
     </row>
-    <row r="446" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="44"/>
     </row>
-    <row r="447" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="44"/>
     </row>
-    <row r="448" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="44"/>
     </row>
-    <row r="449" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="44"/>
     </row>
-    <row r="450" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="44"/>
     </row>
-    <row r="451" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="44"/>
     </row>
-    <row r="452" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="44"/>
     </row>
-    <row r="453" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="44"/>
     </row>
-    <row r="454" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="44"/>
     </row>
-    <row r="455" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="44"/>
     </row>
-    <row r="456" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="44"/>
     </row>
-    <row r="457" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="44"/>
     </row>
-    <row r="458" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="44"/>
     </row>
-    <row r="459" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="44"/>
     </row>
-    <row r="460" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="44"/>
     </row>
-    <row r="461" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="44"/>
     </row>
-    <row r="462" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="44"/>
     </row>
-    <row r="463" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="44"/>
     </row>
-    <row r="464" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="44"/>
     </row>
-    <row r="465" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="44"/>
     </row>
-    <row r="466" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="44"/>
     </row>
-    <row r="467" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="44"/>
     </row>
-    <row r="468" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="44"/>
     </row>
-    <row r="469" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="44"/>
     </row>
-    <row r="470" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="44"/>
     </row>
-    <row r="471" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="44"/>
     </row>
-    <row r="472" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="44"/>
     </row>
-    <row r="473" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="44"/>
     </row>
-    <row r="474" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="44"/>
     </row>
-    <row r="475" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="44"/>
     </row>
-    <row r="476" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="44"/>
     </row>
-    <row r="477" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="44"/>
     </row>
-    <row r="478" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="44"/>
     </row>
-    <row r="479" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="44"/>
     </row>
-    <row r="480" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="44"/>
     </row>
-    <row r="481" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="44"/>
     </row>
-    <row r="482" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="44"/>
     </row>
-    <row r="483" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="44"/>
     </row>
-    <row r="484" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="44"/>
     </row>
-    <row r="485" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="44"/>
     </row>
-    <row r="486" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="44"/>
     </row>
-    <row r="487" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="44"/>
     </row>
-    <row r="488" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="44"/>
     </row>
-    <row r="489" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="44"/>
     </row>
-    <row r="490" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="44"/>
     </row>
-    <row r="491" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="44"/>
     </row>
-    <row r="492" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="44"/>
     </row>
-    <row r="493" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="44"/>
     </row>
-    <row r="494" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="44"/>
     </row>
-    <row r="495" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="44"/>
     </row>
-    <row r="496" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="44"/>
     </row>
-    <row r="497" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="44"/>
     </row>
-    <row r="498" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="44"/>
     </row>
-    <row r="499" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="44"/>
     </row>
-    <row r="500" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="44"/>
     </row>
-    <row r="501" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="44"/>
     </row>
-    <row r="502" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="44"/>
     </row>
-    <row r="503" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="44"/>
     </row>
-    <row r="504" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="44"/>
     </row>
-    <row r="505" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="44"/>
     </row>
-    <row r="506" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="44"/>
     </row>
-    <row r="507" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="44"/>
     </row>
-    <row r="508" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="44"/>
     </row>
-    <row r="509" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="44"/>
     </row>
-    <row r="510" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="44"/>
     </row>
-    <row r="511" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="44"/>
     </row>
-    <row r="512" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="44"/>
     </row>
-    <row r="513" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="44"/>
     </row>
-    <row r="514" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="44"/>
     </row>
-    <row r="515" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="44"/>
     </row>
-    <row r="516" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="44"/>
     </row>
-    <row r="517" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="44"/>
     </row>
-    <row r="518" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="44"/>
     </row>
-    <row r="519" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="44"/>
     </row>
-    <row r="520" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="44"/>
     </row>
-    <row r="521" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="44"/>
     </row>
-    <row r="522" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="44"/>
     </row>
-    <row r="523" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="44"/>
     </row>
-    <row r="524" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="44"/>
     </row>
-    <row r="525" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="44"/>
     </row>
-    <row r="526" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="44"/>
     </row>
-    <row r="527" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="44"/>
     </row>
-    <row r="528" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="44"/>
     </row>
-    <row r="529" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="44"/>
     </row>
-    <row r="530" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="44"/>
     </row>
-    <row r="531" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="44"/>
     </row>
-    <row r="532" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="44"/>
     </row>
-    <row r="533" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="44"/>
     </row>
-    <row r="534" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="44"/>
     </row>
-    <row r="535" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="44"/>
     </row>
-    <row r="536" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="44"/>
     </row>
-    <row r="537" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="44"/>
     </row>
-    <row r="538" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="44"/>
     </row>
-    <row r="539" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="44"/>
     </row>
-    <row r="540" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="44"/>
     </row>
-    <row r="541" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="44"/>
     </row>
-    <row r="542" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="44"/>
     </row>
-    <row r="543" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="44"/>
     </row>
-    <row r="544" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="44"/>
     </row>
-    <row r="545" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="44"/>
     </row>
-    <row r="546" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="44"/>
     </row>
-    <row r="547" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="44"/>
     </row>
-    <row r="548" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="44"/>
     </row>
-    <row r="549" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="44"/>
     </row>
-    <row r="550" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="44"/>
     </row>
-    <row r="551" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="44"/>
     </row>
-    <row r="552" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="44"/>
     </row>
-    <row r="553" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="44"/>
     </row>
-    <row r="554" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="44"/>
     </row>
-    <row r="555" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="44"/>
     </row>
-    <row r="556" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="44"/>
     </row>
-    <row r="557" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="44"/>
     </row>
-    <row r="558" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="44"/>
     </row>
-    <row r="559" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="44"/>
     </row>
-    <row r="560" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="44"/>
     </row>
-    <row r="561" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="44"/>
     </row>
-    <row r="562" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="44"/>
     </row>
-    <row r="563" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="44"/>
     </row>
-    <row r="564" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="44"/>
     </row>
-    <row r="565" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="44"/>
     </row>
-    <row r="566" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="44"/>
     </row>
-    <row r="567" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="44"/>
     </row>
-    <row r="568" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="44"/>
     </row>
-    <row r="569" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="44"/>
     </row>
-    <row r="570" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="44"/>
     </row>
-    <row r="571" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="44"/>
     </row>
-    <row r="572" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="44"/>
     </row>
-    <row r="573" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="44"/>
     </row>
-    <row r="574" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="44"/>
     </row>
-    <row r="575" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="44"/>
     </row>
-    <row r="576" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="44"/>
     </row>
-    <row r="577" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="44"/>
     </row>
-    <row r="578" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="44"/>
     </row>
-    <row r="579" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="44"/>
     </row>
-    <row r="580" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="44"/>
     </row>
-    <row r="581" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="44"/>
     </row>
-    <row r="582" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="44"/>
     </row>
-    <row r="583" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="44"/>
     </row>
-    <row r="584" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="44"/>
     </row>
-    <row r="585" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="44"/>
     </row>
-    <row r="586" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="44"/>
     </row>
-    <row r="587" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="44"/>
     </row>
-    <row r="588" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="44"/>
     </row>
-    <row r="589" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="44"/>
     </row>
-    <row r="590" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="44"/>
     </row>
-    <row r="591" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="44"/>
     </row>
-    <row r="592" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="44"/>
     </row>
-    <row r="593" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="44"/>
     </row>
-    <row r="594" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="44"/>
     </row>
-    <row r="595" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="44"/>
     </row>
-    <row r="596" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="44"/>
     </row>
-    <row r="597" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="44"/>
     </row>
-    <row r="598" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="44"/>
     </row>
-    <row r="599" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="44"/>
     </row>
-    <row r="600" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="44"/>
     </row>
-    <row r="601" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="44"/>
     </row>
-    <row r="602" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="44"/>
     </row>
-    <row r="603" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="44"/>
     </row>
-    <row r="604" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="44"/>
     </row>
-    <row r="605" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="44"/>
     </row>
-    <row r="606" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="44"/>
     </row>
-    <row r="607" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="44"/>
     </row>
-    <row r="608" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="44"/>
     </row>
-    <row r="609" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="44"/>
     </row>
-    <row r="610" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="44"/>
     </row>
-    <row r="611" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="44"/>
     </row>
-    <row r="612" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="44"/>
     </row>
-    <row r="613" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="44"/>
     </row>
-    <row r="614" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="44"/>
     </row>
-    <row r="615" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="44"/>
     </row>
-    <row r="616" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="44"/>
     </row>
-    <row r="617" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="44"/>
     </row>
-    <row r="618" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="44"/>
     </row>
-    <row r="619" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="44"/>
     </row>
-    <row r="620" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="44"/>
     </row>
-    <row r="621" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="44"/>
     </row>
-    <row r="622" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="44"/>
     </row>
-    <row r="623" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="44"/>
     </row>
-    <row r="624" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="44"/>
     </row>
-    <row r="625" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="44"/>
     </row>
-    <row r="626" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="44"/>
     </row>
-    <row r="627" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="44"/>
     </row>
-    <row r="628" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="44"/>
     </row>
-    <row r="629" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="44"/>
     </row>
-    <row r="630" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="44"/>
     </row>
-    <row r="631" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="44"/>
     </row>
-    <row r="632" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="44"/>
     </row>
-    <row r="633" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="44"/>
     </row>
-    <row r="634" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="44"/>
     </row>
-    <row r="635" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="44"/>
     </row>
-    <row r="636" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="44"/>
     </row>
-    <row r="637" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="44"/>
     </row>
-    <row r="638" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="44"/>
     </row>
-    <row r="639" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="44"/>
     </row>
-    <row r="640" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="44"/>
     </row>
-    <row r="641" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="44"/>
     </row>
-    <row r="642" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="44"/>
     </row>
-    <row r="643" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="44"/>
     </row>
-    <row r="644" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="44"/>
     </row>
-    <row r="645" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="44"/>
     </row>
-    <row r="646" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="44"/>
     </row>
-    <row r="647" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="44"/>
     </row>
-    <row r="648" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="44"/>
     </row>
-    <row r="649" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="44"/>
     </row>
-    <row r="650" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="44"/>
     </row>
-    <row r="651" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="44"/>
     </row>
-    <row r="652" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="44"/>
     </row>
-    <row r="653" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="44"/>
     </row>
-    <row r="654" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="44"/>
     </row>
-    <row r="655" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="44"/>
     </row>
-    <row r="656" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="44"/>
     </row>
-    <row r="657" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="44"/>
     </row>
-    <row r="658" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="44"/>
     </row>
-    <row r="659" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="44"/>
     </row>
-    <row r="660" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="44"/>
     </row>
-    <row r="661" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="44"/>
     </row>
-    <row r="662" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="44"/>
     </row>
-    <row r="663" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="44"/>
     </row>
-    <row r="664" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="44"/>
     </row>
-    <row r="665" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="44"/>
     </row>
-    <row r="666" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="44"/>
     </row>
-    <row r="667" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="44"/>
     </row>
-    <row r="668" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="44"/>
     </row>
-    <row r="669" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="44"/>
     </row>
-    <row r="670" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="44"/>
     </row>
-    <row r="671" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="44"/>
     </row>
-    <row r="672" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="44"/>
     </row>
-    <row r="673" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="44"/>
     </row>
-    <row r="674" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="44"/>
     </row>
-    <row r="675" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="44"/>
     </row>
-    <row r="676" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="44"/>
     </row>
-    <row r="677" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="44"/>
     </row>
-    <row r="678" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="44"/>
     </row>
-    <row r="679" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="44"/>
     </row>
-    <row r="680" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="44"/>
     </row>
-    <row r="681" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="44"/>
     </row>
-    <row r="682" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="44"/>
     </row>
-    <row r="683" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="44"/>
     </row>
-    <row r="684" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="44"/>
     </row>
-    <row r="685" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="44"/>
     </row>
-    <row r="686" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="44"/>
     </row>
-    <row r="687" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="44"/>
     </row>
-    <row r="688" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="44"/>
     </row>
-    <row r="689" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="44"/>
     </row>
-    <row r="690" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="44"/>
     </row>
-    <row r="691" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="44"/>
     </row>
-    <row r="692" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="44"/>
     </row>
-    <row r="693" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="44"/>
     </row>
-    <row r="694" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="44"/>
     </row>
-    <row r="695" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="44"/>
     </row>
-    <row r="696" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="44"/>
     </row>
-    <row r="697" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="44"/>
     </row>
-    <row r="698" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="44"/>
     </row>
-    <row r="699" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="44"/>
     </row>
-    <row r="700" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="44"/>
     </row>
-    <row r="701" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="44"/>
     </row>
-    <row r="702" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="44"/>
     </row>
-    <row r="703" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="44"/>
     </row>
-    <row r="704" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="44"/>
     </row>
-    <row r="705" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="44"/>
     </row>
-    <row r="706" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="44"/>
     </row>
-    <row r="707" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="44"/>
     </row>
-    <row r="708" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="44"/>
     </row>
-    <row r="709" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="44"/>
     </row>
-    <row r="710" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="44"/>
     </row>
-    <row r="711" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="44"/>
     </row>
-    <row r="712" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="44"/>
     </row>
-    <row r="713" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="44"/>
     </row>
-    <row r="714" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="44"/>
     </row>
-    <row r="715" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="44"/>
     </row>
-    <row r="716" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="44"/>
     </row>
-    <row r="717" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="44"/>
     </row>
-    <row r="718" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="44"/>
     </row>
-    <row r="719" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="44"/>
     </row>
-    <row r="720" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="44"/>
     </row>
-    <row r="721" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="44"/>
     </row>
-    <row r="722" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="44"/>
     </row>
-    <row r="723" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="44"/>
     </row>
-    <row r="724" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="44"/>
     </row>
-    <row r="725" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="44"/>
     </row>
-    <row r="726" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="44"/>
     </row>
-    <row r="727" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="44"/>
     </row>
-    <row r="728" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="44"/>
     </row>
-    <row r="729" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="44"/>
     </row>
-    <row r="730" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="44"/>
     </row>
-    <row r="731" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="44"/>
     </row>
-    <row r="732" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="44"/>
     </row>
-    <row r="733" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="44"/>
     </row>
-    <row r="734" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="44"/>
     </row>
-    <row r="735" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="44"/>
     </row>
-    <row r="736" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="44"/>
     </row>
-    <row r="737" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="44"/>
     </row>
-    <row r="738" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="44"/>
     </row>
-    <row r="739" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="44"/>
     </row>
-    <row r="740" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="44"/>
     </row>
-    <row r="741" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="44"/>
     </row>
-    <row r="742" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="44"/>
     </row>
-    <row r="743" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="44"/>
     </row>
-    <row r="744" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B744" s="44"/>
     </row>
-    <row r="745" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B745" s="44"/>
     </row>
-    <row r="746" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B746" s="44"/>
     </row>
-    <row r="747" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B747" s="44"/>
     </row>
-    <row r="748" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B748" s="44"/>
     </row>
-    <row r="749" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B749" s="44"/>
     </row>
-    <row r="750" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B750" s="44"/>
     </row>
-    <row r="751" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B751" s="44"/>
     </row>
-    <row r="752" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" s="44"/>
     </row>
-    <row r="753" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B753" s="44"/>
     </row>
-    <row r="754" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B754" s="44"/>
     </row>
-    <row r="755" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B755" s="44"/>
     </row>
-    <row r="756" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B756" s="44"/>
     </row>
-    <row r="757" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B757" s="44"/>
     </row>
-    <row r="758" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B758" s="44"/>
     </row>
-    <row r="759" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B759" s="44"/>
     </row>
-    <row r="760" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B760" s="44"/>
     </row>
-    <row r="761" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B761" s="44"/>
     </row>
-    <row r="762" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B762" s="44"/>
     </row>
-    <row r="763" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B763" s="44"/>
     </row>
-    <row r="764" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B764" s="44"/>
     </row>
-    <row r="765" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B765" s="44"/>
     </row>
-    <row r="766" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B766" s="44"/>
     </row>
-    <row r="767" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" s="44"/>
     </row>
-    <row r="768" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B768" s="44"/>
     </row>
-    <row r="769" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B769" s="44"/>
     </row>
-    <row r="770" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B770" s="44"/>
     </row>
-    <row r="771" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B771" s="44"/>
     </row>
-    <row r="772" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B772" s="44"/>
     </row>
-    <row r="773" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B773" s="44"/>
     </row>
-    <row r="774" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B774" s="44"/>
     </row>
-    <row r="775" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B775" s="44"/>
     </row>
-    <row r="776" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B776" s="44"/>
     </row>
-    <row r="777" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B777" s="44"/>
     </row>
-    <row r="778" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B778" s="44"/>
     </row>
-    <row r="779" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" s="44"/>
     </row>
-    <row r="780" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B780" s="44"/>
     </row>
-    <row r="781" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B781" s="44"/>
     </row>
-    <row r="782" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B782" s="44"/>
     </row>
-    <row r="783" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B783" s="44"/>
     </row>
-    <row r="784" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B784" s="44"/>
     </row>
-    <row r="785" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B785" s="44"/>
     </row>
-    <row r="786" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B786" s="44"/>
     </row>
-    <row r="787" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B787" s="44"/>
     </row>
-    <row r="788" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B788" s="44"/>
     </row>
-    <row r="789" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B789" s="44"/>
     </row>
-    <row r="790" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B790" s="44"/>
     </row>
-    <row r="791" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B791" s="44"/>
     </row>
-    <row r="792" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B792" s="44"/>
     </row>
-    <row r="793" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B793" s="44"/>
     </row>
-    <row r="794" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B794" s="44"/>
     </row>
-    <row r="795" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B795" s="44"/>
     </row>
-    <row r="796" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B796" s="44"/>
     </row>
-    <row r="797" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B797" s="44"/>
     </row>
-    <row r="798" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B798" s="44"/>
     </row>
-    <row r="799" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B799" s="44"/>
     </row>
-    <row r="800" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B800" s="44"/>
     </row>
-    <row r="801" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" s="44"/>
     </row>
-    <row r="802" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" s="44"/>
     </row>
-    <row r="803" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" s="44"/>
     </row>
-    <row r="804" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" s="44"/>
     </row>
-    <row r="805" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" s="44"/>
     </row>
-    <row r="806" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" s="44"/>
     </row>
-    <row r="807" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" s="44"/>
     </row>
-    <row r="808" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" s="44"/>
     </row>
-    <row r="809" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" s="44"/>
     </row>
-    <row r="810" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" s="44"/>
     </row>
-    <row r="811" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" s="44"/>
     </row>
-    <row r="812" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" s="44"/>
     </row>
-    <row r="813" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B813" s="44"/>
     </row>
-    <row r="814" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B814" s="44"/>
     </row>
-    <row r="815" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B815" s="44"/>
     </row>
-    <row r="816" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B816" s="44"/>
     </row>
-    <row r="817" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B817" s="44"/>
     </row>
-    <row r="818" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B818" s="44"/>
     </row>
-    <row r="819" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B819" s="44"/>
     </row>
-    <row r="820" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B820" s="44"/>
     </row>
-    <row r="821" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B821" s="44"/>
     </row>
-    <row r="822" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B822" s="44"/>
     </row>
-    <row r="823" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B823" s="44"/>
     </row>
-    <row r="824" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B824" s="44"/>
     </row>
-    <row r="825" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B825" s="44"/>
     </row>
-    <row r="826" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B826" s="44"/>
     </row>
-    <row r="827" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" s="44"/>
     </row>
-    <row r="828" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" s="44"/>
     </row>
-    <row r="829" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" s="44"/>
     </row>
-    <row r="830" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" s="44"/>
     </row>
-    <row r="831" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" s="44"/>
     </row>
-    <row r="832" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" s="44"/>
     </row>
-    <row r="833" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" s="44"/>
     </row>
-    <row r="834" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B834" s="44"/>
     </row>
-    <row r="835" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" s="44"/>
     </row>
-    <row r="836" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B836" s="44"/>
     </row>
-    <row r="837" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" s="44"/>
     </row>
-    <row r="838" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B838" s="44"/>
     </row>
-    <row r="839" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" s="44"/>
     </row>
-    <row r="840" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B840" s="44"/>
     </row>
-    <row r="841" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B841" s="44"/>
     </row>
-    <row r="842" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B842" s="44"/>
     </row>
-    <row r="843" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B843" s="44"/>
     </row>
-    <row r="844" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B844" s="44"/>
     </row>
-    <row r="845" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B845" s="44"/>
     </row>
-    <row r="846" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B846" s="44"/>
     </row>
-    <row r="847" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B847" s="44"/>
     </row>
-    <row r="848" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B848" s="44"/>
     </row>
-    <row r="849" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B849" s="44"/>
     </row>
-    <row r="850" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B850" s="44"/>
     </row>
-    <row r="851" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B851" s="44"/>
     </row>
-    <row r="852" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B852" s="44"/>
     </row>
-    <row r="853" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B853" s="44"/>
     </row>
-    <row r="854" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B854" s="44"/>
     </row>
-    <row r="855" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B855" s="44"/>
     </row>
-    <row r="856" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B856" s="44"/>
     </row>
-    <row r="857" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B857" s="44"/>
     </row>
-    <row r="858" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B858" s="44"/>
     </row>
-    <row r="859" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B859" s="44"/>
     </row>
-    <row r="860" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B860" s="44"/>
     </row>
-    <row r="861" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B861" s="44"/>
     </row>
-    <row r="862" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B862" s="44"/>
     </row>
-    <row r="863" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B863" s="44"/>
     </row>
-    <row r="864" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B864" s="44"/>
     </row>
-    <row r="865" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" s="44"/>
     </row>
-    <row r="866" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B866" s="44"/>
     </row>
-    <row r="867" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B867" s="44"/>
     </row>
-    <row r="868" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B868" s="44"/>
     </row>
-    <row r="869" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B869" s="44"/>
     </row>
-    <row r="870" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B870" s="44"/>
     </row>
-    <row r="871" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B871" s="44"/>
     </row>
-    <row r="872" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B872" s="44"/>
     </row>
-    <row r="873" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B873" s="44"/>
     </row>
-    <row r="874" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B874" s="44"/>
     </row>
-    <row r="875" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B875" s="44"/>
     </row>
-    <row r="876" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B876" s="44"/>
     </row>
-    <row r="877" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B877" s="44"/>
     </row>
-    <row r="878" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B878" s="44"/>
     </row>
-    <row r="879" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B879" s="44"/>
     </row>
-    <row r="880" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B880" s="44"/>
     </row>
-    <row r="881" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B881" s="44"/>
     </row>
-    <row r="882" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B882" s="44"/>
     </row>
-    <row r="883" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B883" s="44"/>
     </row>
-    <row r="884" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B884" s="44"/>
     </row>
-    <row r="885" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B885" s="44"/>
     </row>
-    <row r="886" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B886" s="44"/>
     </row>
-    <row r="887" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="44"/>
     </row>
-    <row r="888" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" s="44"/>
     </row>
-    <row r="889" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="44"/>
     </row>
-    <row r="890" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B890" s="44"/>
     </row>
-    <row r="891" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" s="44"/>
     </row>
-    <row r="892" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B892" s="44"/>
     </row>
-    <row r="893" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B893" s="44"/>
     </row>
-    <row r="894" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B894" s="44"/>
     </row>
-    <row r="895" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" s="44"/>
     </row>
-    <row r="896" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B896" s="44"/>
     </row>
-    <row r="897" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B897" s="44"/>
     </row>
-    <row r="898" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B898" s="44"/>
     </row>
-    <row r="899" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" s="44"/>
     </row>
-    <row r="900" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B900" s="44"/>
     </row>
-    <row r="901" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B901" s="44"/>
     </row>
-    <row r="902" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B902" s="44"/>
     </row>
-    <row r="903" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B903" s="44"/>
     </row>
-    <row r="904" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B904" s="44"/>
     </row>
-    <row r="905" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B905" s="44"/>
     </row>
-    <row r="906" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B906" s="44"/>
     </row>
-    <row r="907" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" s="44"/>
     </row>
-    <row r="908" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B908" s="44"/>
     </row>
-    <row r="909" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B909" s="44"/>
     </row>
-    <row r="910" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B910" s="44"/>
     </row>
-    <row r="911" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" s="44"/>
     </row>
-    <row r="912" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B912" s="44"/>
     </row>
-    <row r="913" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B913" s="44"/>
     </row>
-    <row r="914" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B914" s="44"/>
     </row>
-    <row r="915" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" s="44"/>
     </row>
-    <row r="916" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B916" s="44"/>
     </row>
-    <row r="917" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B917" s="44"/>
     </row>
-    <row r="918" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B918" s="44"/>
     </row>
-    <row r="919" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" s="44"/>
     </row>
-    <row r="920" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B920" s="44"/>
     </row>
-    <row r="921" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B921" s="44"/>
     </row>
-    <row r="922" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B922" s="44"/>
     </row>
-    <row r="923" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" s="44"/>
     </row>
-    <row r="924" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B924" s="44"/>
     </row>
-    <row r="925" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B925" s="44"/>
     </row>
-    <row r="926" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B926" s="44"/>
     </row>
-    <row r="927" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" s="44"/>
     </row>
-    <row r="928" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B928" s="44"/>
     </row>
-    <row r="929" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B929" s="44"/>
     </row>
-    <row r="930" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B930" s="44"/>
     </row>
-    <row r="931" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" s="44"/>
     </row>
-    <row r="932" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B932" s="44"/>
     </row>
-    <row r="933" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B933" s="44"/>
     </row>
-    <row r="934" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B934" s="44"/>
     </row>
-    <row r="935" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" s="44"/>
     </row>
-    <row r="936" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B936" s="44"/>
     </row>
-    <row r="937" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B937" s="44"/>
     </row>
-    <row r="938" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B938" s="44"/>
     </row>
-    <row r="939" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" s="44"/>
     </row>
-    <row r="940" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B940" s="44"/>
     </row>
-    <row r="941" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B941" s="44"/>
     </row>
-    <row r="942" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B942" s="44"/>
     </row>
-    <row r="943" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" s="44"/>
     </row>
-    <row r="944" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B944" s="44"/>
     </row>
-    <row r="945" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B945" s="44"/>
     </row>
-    <row r="946" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B946" s="44"/>
     </row>
-    <row r="947" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" s="44"/>
     </row>
-    <row r="948" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B948" s="44"/>
     </row>
-    <row r="949" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B949" s="44"/>
     </row>
-    <row r="950" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B950" s="44"/>
     </row>
-    <row r="951" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" s="44"/>
     </row>
-    <row r="952" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B952" s="44"/>
     </row>
-    <row r="953" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B953" s="44"/>
     </row>
-    <row r="954" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B954" s="44"/>
     </row>
-    <row r="955" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" s="44"/>
     </row>
-    <row r="956" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B956" s="44"/>
     </row>
-    <row r="957" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B957" s="44"/>
     </row>
-    <row r="958" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B958" s="44"/>
     </row>
-    <row r="959" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" s="44"/>
     </row>
-    <row r="960" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B960" s="44"/>
     </row>
-    <row r="961" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B961" s="44"/>
     </row>
-    <row r="962" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B962" s="44"/>
     </row>
-    <row r="963" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" s="44"/>
     </row>
-    <row r="964" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B964" s="44"/>
     </row>
-    <row r="965" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B965" s="44"/>
     </row>
-    <row r="966" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B966" s="44"/>
     </row>
-    <row r="967" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B967" s="44"/>
     </row>
-    <row r="968" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B968" s="44"/>
     </row>
-    <row r="969" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B969" s="44"/>
     </row>
-    <row r="970" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B970" s="44"/>
     </row>
-    <row r="971" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B971" s="44"/>
     </row>
-    <row r="972" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B972" s="44"/>
     </row>
-    <row r="973" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B973" s="44"/>
     </row>
-    <row r="974" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B974" s="44"/>
     </row>
-    <row r="975" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B975" s="44"/>
     </row>
-    <row r="976" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B976" s="44"/>
     </row>
-    <row r="977" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B977" s="44"/>
     </row>
-    <row r="978" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B978" s="44"/>
     </row>
-    <row r="979" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B979" s="44"/>
     </row>
-    <row r="980" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B980" s="44"/>
     </row>
-    <row r="981" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B981" s="44"/>
     </row>
-    <row r="982" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B982" s="44"/>
     </row>
-    <row r="983" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B983" s="44"/>
     </row>
-    <row r="984" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B984" s="44"/>
     </row>
-    <row r="985" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B985" s="44"/>
     </row>
-    <row r="986" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B986" s="44"/>
     </row>
-    <row r="987" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B987" s="44"/>
     </row>
-    <row r="988" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="44"/>
     </row>
-    <row r="989" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="44"/>
     </row>
-    <row r="990" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="44"/>
     </row>
-    <row r="991" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="44"/>
     </row>
-    <row r="992" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="44"/>
     </row>
-    <row r="993" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="44"/>
     </row>
-    <row r="994" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="44"/>
     </row>
-    <row r="995" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="44"/>
     </row>
-    <row r="996" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="44"/>
     </row>
-    <row r="997" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="44"/>
     </row>
-    <row r="998" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="44"/>
     </row>
-    <row r="999" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="44"/>
     </row>
-    <row r="1000" spans="2:2" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="44"/>
     </row>
   </sheetData>

--- a/media/LSR Frais Inscription.xlsx
+++ b/media/LSR Frais Inscription.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3602A1-094A-4A78-B73E-3F5E266304FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AEFFF-C32C-4D42-9831-C960C2AB0418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0mMFGNhDyLpF0eVlornqGqWIEY+Keivj1d5zdKC6kueANGthnCptPKZlB4TGb2Kuh9Y7C3sIbzvROXQDbVyReQ==" workbookSaltValue="0ziaGb5q8uxudE1Zb0X8jQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20892" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulateur" sheetId="2" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Nombre d'enfant (s) à charge</t>
   </si>
   <si>
-    <t>Coût total année scolaire 2020/2021</t>
-  </si>
-  <si>
     <t>Frais d'inscription (uniquement la 1ère année)</t>
   </si>
   <si>
@@ -112,10 +109,6 @@
   </si>
   <si>
     <t>Simulateur de coûts d'écolage</t>
-  </si>
-  <si>
-    <t>version 1
-15 avril 2020</t>
   </si>
   <si>
     <t>Réf. décision taxation</t>
@@ -137,6 +130,13 @@
   </si>
   <si>
     <t>3.510+530</t>
+  </si>
+  <si>
+    <t>Coût total année scolaire 2021/2022</t>
+  </si>
+  <si>
+    <t>version 1.2
+20 juin 2020</t>
   </si>
 </sst>
 </file>
@@ -637,6 +637,65 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
@@ -658,65 +717,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection hidden="1"/>
@@ -728,16 +728,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -800,6 +790,16 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,14 +870,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2082031A-BF05-4D35-91F6-16CCCB718446}" name="Fratrie" displayName="Fratrie" ref="G2:H7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2082031A-BF05-4D35-91F6-16CCCB718446}" name="Fratrie" displayName="Fratrie" ref="G2:H7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="G2:H7" xr:uid="{C7B99F59-98AA-4B27-BEAC-0357A031CDA4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:H7">
     <sortCondition ref="G2:G7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A063431-115F-46CA-B56A-1A80709150E8}" name="Enfants" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9B9A6617-13E2-45F2-8CA9-DDDE1128F060}" name="Rabais" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1A063431-115F-46CA-B56A-1A80709150E8}" name="Enfants" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9B9A6617-13E2-45F2-8CA9-DDDE1128F060}" name="Rabais" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,16 +1104,16 @@
   <sheetData>
     <row r="1" spans="2:6" s="28" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="2:6" s="28" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,35 +1124,35 @@
         <v>14</v>
       </c>
       <c r="C5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="28" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="51">
         <v>650</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="29"/>
@@ -1165,10 +1165,10 @@
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="51">
         <v>310</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="52" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="13"/>
@@ -1181,19 +1181,19 @@
       <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" s="10" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="51">
         <v>410</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>35</v>
+      <c r="D10" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="9">
@@ -1203,12 +1203,12 @@
     </row>
     <row r="11" spans="2:6" s="28" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="64">
+        <v>31</v>
+      </c>
+      <c r="C11" s="51">
         <v>420</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="53">
         <v>3230</v>
       </c>
       <c r="E11" s="13"/>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="12" spans="2:6" s="28" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="51">
+        <v>430</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="64">
-        <v>430</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9">
@@ -1237,18 +1237,18 @@
       <c r="B13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="64">
+        <v>26</v>
+      </c>
+      <c r="C14" s="51">
         <v>610</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="52" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="29"/>
@@ -1261,10 +1261,10 @@
       <c r="B15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="51">
         <v>540</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="52" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="29"/>
@@ -1294,17 +1294,17 @@
       <c r="B18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="18"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" s="28" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="31"/>
       <c r="F19" s="4">
         <f>IF(OR(C19=Feuil2!E1,C19=0),0,-15600)</f>
@@ -1315,8 +1315,8 @@
       <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="19">
         <v>-14000</v>
       </c>
@@ -1360,8 +1360,8 @@
       <c r="B24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
     </row>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26" spans="2:6" s="28" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="28" spans="2:6" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -1429,8 +1429,8 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
-        <v>29</v>
+      <c r="B31" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6307,19 +6307,19 @@
       <c r="E1005" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ACXgOTrYN4UKXo0pVOMgXLDcUzX7lInCVSBpNwOoey5oJf5MVuU7SCMfqNWnBJCDVBHdwXLaZcXhGrIx/vwrmA==" saltValue="owRfHdaiNaNSEI62Fuy2RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OPiXZ1s718cagAabu4dwpWlAzI/aHbSsjgz6rsaPQAqdoE5w84izZ0qvXVBkbRT3wDk7m8vlUJRPdf7zl2E+FQ==" saltValue="YXEjopoIalKjGMTIQjKRuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>$C$20</formula>
     </cfRule>
   </conditionalFormatting>
